--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F12FB77-8DC7-8E43-B970-C80AF746C479}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610B8A43-8C30-CB47-952B-483E2DDE7F9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6126,82 +6126,89 @@
         <v>25.142857142857142</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>19</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>27.857142857142858</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -6227,7 +6234,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12128,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12516,82 +12523,89 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>0</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -12617,7 +12631,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17316,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17704,82 +17718,89 @@
         <v>27.142857142857142</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>2</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>25.428571428571427</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -17805,7 +17826,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22108,7 +22129,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D400" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D401" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22892,82 +22913,89 @@
         <v>16.142857142857142</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>15</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>16.142857142857142</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610B8A43-8C30-CB47-952B-483E2DDE7F9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED20C3B8-0657-3F41-BE17-5459434D8074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6141,6 +6141,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>8</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>27.571428571428573</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -6233,8 +6240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12135,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12538,6 +12545,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>0</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -12630,8 +12644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17330,7 +17344,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17733,6 +17747,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>52</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>26.857142857142858</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -17825,8 +17846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+    <sheetView topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22129,7 +22150,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D401" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D402" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22928,6 +22949,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>15</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED20C3B8-0657-3F41-BE17-5459434D8074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5DE4E-C95E-974E-95B8-94A15054D873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6153,6 +6153,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>29</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>25.571428571428573</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -6241,7 +6248,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12142,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12557,6 +12564,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>1</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="10"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -12644,8 +12658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+    <sheetView topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17344,7 +17358,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17759,6 +17773,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>22</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>28.571428571428573</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -17846,8 +17867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22150,7 +22171,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D402" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D403" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22961,6 +22982,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>15</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/province/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5DE4E-C95E-974E-95B8-94A15054D873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD0D47-3308-0049-BC86-E55AAF319B3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6165,6 +6165,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>12</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>20.714285714285715</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -6248,7 +6255,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12149,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12576,6 +12583,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>1</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="10"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -12659,7 +12673,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17358,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17785,6 +17799,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>17</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>26.714285714285715</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -17868,7 +17889,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22171,7 +22192,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D403" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D404" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22994,6 +23015,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>15</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>15.428571428571429</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/province/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD0D47-3308-0049-BC86-E55AAF319B3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFDD48C-B43C-C147-B08F-F849592E9003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6177,6 +6177,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>15</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>17.571428571428573</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -6254,8 +6261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12156,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12595,6 +12602,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>1</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="10"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -12673,7 +12687,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17372,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17811,6 +17825,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>23</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>28.428571428571427</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -17889,7 +17910,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22192,7 +22213,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D404" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D405" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23027,6 +23048,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>16</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>15.428571428571429</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFDD48C-B43C-C147-B08F-F849592E9003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE5E015-8987-8E4C-B158-4449EA0F94C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:E406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6189,6 +6189,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>8</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -6262,7 +6269,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12163,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12614,6 +12621,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>0</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="10"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -12687,7 +12701,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17386,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17837,6 +17851,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>0</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -17910,7 +17931,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22213,7 +22234,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D405" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D406" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23060,6 +23081,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>16</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>15.285714285714286</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE5E015-8987-8E4C-B158-4449EA0F94C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA644B8-C1EE-0641-BC2F-635CCF8D9E5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:E406"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6202,10 +6202,24 @@
       <c r="A407" s="5">
         <v>44305</v>
       </c>
+      <c r="C407" s="2">
+        <v>0</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>6</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>11.142857142857142</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -6269,7 +6283,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12170,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12634,10 +12648,24 @@
       <c r="A407" s="5">
         <v>44305</v>
       </c>
+      <c r="C407" s="2">
+        <v>0</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="10"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>0</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="10"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -12700,8 +12728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+    <sheetView topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17400,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17864,10 +17892,24 @@
       <c r="A407" s="5">
         <v>44305</v>
       </c>
+      <c r="C407" s="2">
+        <v>29</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>20.714285714285715</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>0</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>20.428571428571427</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -17930,8 +17972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22234,7 +22276,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D406" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D408" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23094,10 +23136,24 @@
       <c r="A407" s="5">
         <v>44305</v>
       </c>
+      <c r="C407" s="2">
+        <v>16</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>15.428571428571429</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>16</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA644B8-C1EE-0641-BC2F-635CCF8D9E5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB830F3-153F-9F4C-8C88-FE030402F610}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6225,6 +6225,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>52</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>17.428571428571427</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -6282,8 +6289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12184,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12671,6 +12678,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>0</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="10"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -12728,8 +12742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17428,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17915,6 +17929,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>28</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -17973,7 +17994,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22276,7 +22297,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D408" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D409" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23159,6 +23180,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>16</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>15.714285714285714</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB830F3-153F-9F4C-8C88-FE030402F610}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648235A2-FC96-3244-AD48-B1ED4DFDA2F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6237,6 +6237,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>24</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>16.714285714285715</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -6290,7 +6297,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12191,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12690,6 +12697,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>1</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="10"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -12742,8 +12756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17442,7 +17456,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17941,6 +17955,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>47</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>20.571428571428573</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -17993,8 +18014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+    <sheetView topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22297,7 +22318,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D409" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D410" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23192,6 +23213,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>16</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648235A2-FC96-3244-AD48-B1ED4DFDA2F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB66F76-F3EC-D645-A3EE-35D6B73FF907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+    <sheetView topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6249,6 +6249,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>11</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>16.571428571428573</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -6297,7 +6304,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12198,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12709,6 +12716,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>0</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="10"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -12756,8 +12770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17456,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17967,6 +17981,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>15</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>20.285714285714285</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -18014,8 +18035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22318,7 +22339,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D410" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D411" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23225,6 +23246,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>15</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB66F76-F3EC-D645-A3EE-35D6B73FF907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B6F62-1944-9D4F-8140-1138BFABCE33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6261,6 +6261,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>27</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>18.285714285714285</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -6304,7 +6311,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12205,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="10">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="10">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12728,6 +12735,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>0</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="10"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -12770,8 +12784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+    <sheetView topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17470,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17993,6 +18007,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>33</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -18036,7 +18057,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="G408" sqref="G408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22339,7 +22360,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D411" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D412" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23258,6 +23279,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>15</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>15.714285714285714</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD90E90-2A25-7F44-AACA-39AC04E3DA21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8BF0B-D4DA-B848-8FB2-865A2E28722F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6282,6 +6282,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>26.571428571428573</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -6314,8 +6321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11027,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11574,6 +11581,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11606,8 +11620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16306,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -16853,6 +16867,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>17</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>20.428571428571427</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -16885,8 +16906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+    <sheetView topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21189,7 +21210,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D413" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D414" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22132,6 +22153,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>16</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8BF0B-D4DA-B848-8FB2-865A2E28722F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D072E6-45D0-E848-894D-0CB8EE24728D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6294,6 +6294,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>32</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>30.285714285714285</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -6322,7 +6329,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11034,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11593,6 +11600,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11620,8 +11634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+    <sheetView topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16320,7 +16334,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -16879,6 +16893,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>14</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>22.428571428571427</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -16906,8 +16927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21210,7 +21231,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D414" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D415" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22165,6 +22186,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>16</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D072E6-45D0-E848-894D-0CB8EE24728D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8234166B-29EA-7B41-A2A5-A518359EE0ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6306,6 +6306,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>35</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>27.857142857142858</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -6329,7 +6336,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11041,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11612,6 +11619,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>3</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -11634,8 +11648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="G414" sqref="G414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16334,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -16905,6 +16919,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>45</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>24.857142857142858</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -16927,8 +16948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+    <sheetView topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21231,7 +21252,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D415" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D416" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22198,6 +22219,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>14</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8234166B-29EA-7B41-A2A5-A518359EE0ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9177105A-8274-7547-9611-5F63B014241C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6315,12 +6315,19 @@
         <v>27.857142857142858</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>34</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>29.285714285714285</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -6336,7 +6343,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11048,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11628,12 +11635,19 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -11649,7 +11663,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="G414" sqref="G414"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16348,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -16928,12 +16942,19 @@
         <v>24.857142857142858</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>35</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>23.142857142857142</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -16949,7 +16970,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21252,7 +21273,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D416" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D417" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22228,12 +22249,19 @@
         <v>15.571428571428571</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>16</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9177105A-8274-7547-9611-5F63B014241C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D8A796-830E-A84C-8340-27A1E54D03B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="F411" sqref="F411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6330,6 +6330,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>20</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>30.571428571428573</v>
       </c>
     </row>
   </sheetData>
@@ -6343,7 +6350,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11055,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11650,6 +11657,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
   </sheetData>
@@ -11662,8 +11676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+    <sheetView topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16362,7 +16376,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -16957,6 +16971,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -16970,7 +16991,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21273,7 +21294,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D417" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D418" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22264,6 +22285,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>20</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>16.285714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D8A796-830E-A84C-8340-27A1E54D03B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B029511-57B8-B647-B0FB-9AF86412EFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5480" yWindow="1220" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J418"/>
+  <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="F411" sqref="F411"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6337,6 +6337,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>30.571428571428573</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>31</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>31.142857142857142</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>6</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>22.714285714285715</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>4</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>23.142857142857142</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -6347,10 +6523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G418"/>
+  <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11062,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11664,6 +11840,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -11674,10 +12026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16376,7 +16728,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -16978,6 +17330,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>46</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>22.857142857142858</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>4</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>19</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>23.285714285714285</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -16988,10 +17516,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21294,7 +21822,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D418" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D421" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22292,6 +22820,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>16.285714285714285</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>20</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>16.857142857142858</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>20</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>20</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B029511-57B8-B647-B0FB-9AF86412EFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5E972A-011F-5044-9B12-51DF09DA32E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="1220" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="920" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6378,6 +6378,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>10</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -6526,7 +6533,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11238,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11881,6 +11888,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -12029,7 +12043,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16728,7 +16742,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17371,6 +17385,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>12</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -17519,7 +17540,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21822,7 +21843,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D421" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D422" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22861,6 +22882,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>20</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>18.571428571428573</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5E972A-011F-5044-9B12-51DF09DA32E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD40882-6676-0D45-9736-D9B25453256D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="920" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6390,6 +6390,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>17</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>17.428571428571427</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -6533,7 +6540,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="C423" sqref="C423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11245,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11900,6 +11907,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423" s="3">
+        <v>0</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -12043,7 +12057,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16742,7 +16756,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17397,6 +17411,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>16.571428571428573</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -17540,7 +17561,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21843,7 +21864,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D422" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D423" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22894,6 +22915,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>20</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>19.428571428571427</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD40882-6676-0D45-9736-D9B25453256D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B1C8DC-9053-FC48-AAD9-DBBB54E5BAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="920" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="920" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6402,6 +6402,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>24</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -6540,7 +6547,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="C423" sqref="C423:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11252,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11919,6 +11926,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -12056,8 +12070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16756,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17423,6 +17437,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>28</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -17560,8 +17581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+    <sheetView topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21864,7 +21885,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D423" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D424" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22927,6 +22948,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>20</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B1C8DC-9053-FC48-AAD9-DBBB54E5BAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D732DBDF-BC8B-6C48-9170-B83A3B1E09F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="920" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3940" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="H422" sqref="H422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6414,6 +6414,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>18</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>15.714285714285714</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -6547,7 +6554,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+      <selection activeCell="G425" sqref="G425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11259,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11938,6 +11945,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -12070,8 +12084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="C399" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16770,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17449,6 +17463,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>21</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>18.571428571428573</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -17582,7 +17603,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21885,7 +21906,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D424" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D425" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22960,6 +22981,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>21</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>20.142857142857142</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D732DBDF-BC8B-6C48-9170-B83A3B1E09F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57FB0A7-529F-644E-81FB-5D4786874275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="H422" sqref="H422"/>
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6426,6 +6426,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>22</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>14.428571428571429</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -6554,7 +6561,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="G425" sqref="G425"/>
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11266,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11957,6 +11964,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -12084,8 +12098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="C399" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16784,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17475,6 +17489,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>9</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>13.285714285714286</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -17602,8 +17623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21906,7 +21927,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D425" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D426" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -22993,6 +23014,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>20</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>20.142857142857142</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57FB0A7-529F-644E-81FB-5D4786874275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A850702-4460-A642-BB5A-4E28DC4CC23E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6438,6 +6438,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>31</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6560,8 +6567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11273,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11976,6 +11983,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -12099,7 +12113,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16798,7 +16812,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17501,6 +17515,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>20</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -17623,8 +17644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+    <sheetView topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21927,7 +21948,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D426" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D427" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23026,6 +23047,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>20</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>20.142857142857142</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A850702-4460-A642-BB5A-4E28DC4CC23E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A52670-615B-4249-A3C2-F21C839A0A1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6450,6 +6450,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>4</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -6567,8 +6574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11280,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -11995,6 +12002,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -12113,7 +12127,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16812,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17527,6 +17541,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>29</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -17644,8 +17665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21948,7 +21969,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D427" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D428" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23059,6 +23080,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>19</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A52670-615B-4249-A3C2-F21C839A0A1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACEE65-B41C-D144-BD6C-371641A6C2CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6462,6 +6462,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>13</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>18.428571428571427</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -6575,7 +6582,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11287,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12014,6 +12021,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -12127,7 +12141,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16826,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17553,6 +17567,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>10</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>16.714285714285715</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -17666,7 +17687,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21969,7 +21990,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D428" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D429" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23092,6 +23113,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>18</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>19.714285714285715</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACEE65-B41C-D144-BD6C-371641A6C2CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F892C1B-86B7-7943-AACF-2DF76D6560DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6474,6 +6474,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>11</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>17.571428571428573</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6582,7 +6589,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11294,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12033,6 +12040,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -12140,8 +12154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16840,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17579,6 +17593,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>38</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>22.142857142857142</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -17687,7 +17708,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21990,7 +22011,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D429" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D430" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23125,6 +23146,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>18</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>19.428571428571427</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F892C1B-86B7-7943-AACF-2DF76D6560DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD9F57E-350E-F049-BD16-2CDC3918461E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6486,6 +6486,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>15</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>16.285714285714285</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6589,7 +6596,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11301,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12052,6 +12059,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -12155,7 +12169,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16854,7 +16868,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17605,6 +17619,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>22</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>21.285714285714285</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -17707,8 +17728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22011,7 +22032,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D430" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D431" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23158,6 +23179,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>20</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>19.428571428571427</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD9F57E-350E-F049-BD16-2CDC3918461E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EBE3D2-CE46-EA4C-A762-AF44597714F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6498,6 +6498,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>6</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>14.571428571428571</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -6596,7 +6603,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11308,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12071,6 +12078,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -12168,8 +12182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16868,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17631,6 +17645,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>31</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>22.714285714285715</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -17729,7 +17750,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22032,7 +22053,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D431" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D432" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23191,6 +23212,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>20</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>19.285714285714285</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EBE3D2-CE46-EA4C-A762-AF44597714F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB72995-C903-1A44-B1F8-F316A6739D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6507,82 +6507,89 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>17</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>13.857142857142858</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -6603,7 +6610,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11315,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12087,82 +12094,89 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -12182,8 +12196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16882,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17654,82 +17668,89 @@
         <v>22.714285714285715</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>45</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>27.857142857142858</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -17749,8 +17770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22053,7 +22074,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D432" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D433" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23221,82 +23242,89 @@
         <v>19.285714285714285</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>19</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>19.142857142857142</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB72995-C903-1A44-B1F8-F316A6739D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C78A933-B2D5-D147-8B34-0579893A2336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6522,6 +6522,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>29</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>13.571428571428571</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -6610,7 +6617,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11322,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12109,6 +12116,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -12197,7 +12211,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16896,7 +16910,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17683,6 +17697,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>20</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>27.857142857142858</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -17770,8 +17791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22074,7 +22095,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D433" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D434" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23257,6 +23278,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>18</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>18.857142857142858</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C78A933-B2D5-D147-8B34-0579893A2336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F673DE36-8EE6-1146-839C-68090EC93F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6534,6 +6534,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -6617,7 +6624,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+      <selection activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11329,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12128,6 +12135,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -12211,7 +12225,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+      <selection activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16910,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17709,6 +17723,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>10</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>25.142857142857142</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -17792,7 +17813,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+      <selection activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22095,7 +22116,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D434" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D435" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23290,6 +23311,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>20</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F673DE36-8EE6-1146-839C-68090EC93F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971ADE63-1EAF-2348-964E-FED7090B51CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="D435" sqref="D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6546,6 +6546,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>11.142857142857142</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -6624,7 +6631,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="D435" sqref="D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11336,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12147,6 +12154,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -12224,8 +12238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="D435" sqref="D435"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16924,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17735,6 +17749,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>31</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>28.142857142857142</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -17813,7 +17834,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="D435" sqref="D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22116,7 +22137,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D435" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D436" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23323,6 +23344,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>20</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>19.285714285714285</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971ADE63-1EAF-2348-964E-FED7090B51CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C89CA4-77EC-DB41-AA2F-EA3ABEF91016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8780" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6558,6 +6558,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>12</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>11.285714285714286</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -6631,7 +6638,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11343,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12166,6 +12173,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -12238,8 +12252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="F430" sqref="F430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16938,7 +16952,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17761,6 +17775,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>30</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -17833,8 +17854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22137,7 +22158,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D436" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D437" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23356,6 +23377,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>20</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>19.571428571428573</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C89CA4-77EC-DB41-AA2F-EA3ABEF91016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABEACB-2457-D643-9F1C-837179F3BAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6570,6 +6570,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>17</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>11.571428571428571</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -6637,8 +6644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11350,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12185,6 +12192,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -12252,8 +12266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="F430" sqref="F430"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16952,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17787,6 +17801,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>26</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>27.571428571428573</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -17855,7 +17876,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22158,7 +22179,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D437" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D438" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23389,6 +23410,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>20</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>19.571428571428573</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABEACB-2457-D643-9F1C-837179F3BAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EE84EF-6385-6547-A81A-9761FC823139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+    <sheetView topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6582,6 +6582,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>15</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>12.857142857142858</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -6644,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11357,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12204,6 +12211,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -12267,7 +12281,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16966,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17813,6 +17827,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>26</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>26.857142857142858</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -17875,8 +17896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="D439" sqref="D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22179,7 +22200,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D438" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D439" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23422,6 +23443,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>20</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>19.571428571428573</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EE84EF-6385-6547-A81A-9761FC823139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F471B8E-C2BC-7642-A7DF-1C70C39F606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5720" yWindow="560" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6594,6 +6594,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>9</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>11.714285714285714</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -6652,7 +6659,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11364,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12223,6 +12230,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -12280,8 +12294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16980,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17839,6 +17853,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>20</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>23.285714285714285</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -17896,8 +17917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="D439" sqref="D439"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22200,7 +22221,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D439" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D440" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23455,6 +23476,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>20</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>19.714285714285715</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F471B8E-C2BC-7642-A7DF-1C70C39F606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75F84CC-767F-3B47-855B-7F7B46159EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="560" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6606,6 +6606,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>7.7142857142857144</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -6659,7 +6666,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11371,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12242,6 +12249,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -12294,8 +12308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16994,7 +17008,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17865,6 +17879,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>9</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -17917,8 +17938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22221,7 +22242,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D440" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D441" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23488,6 +23509,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>18</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>19.714285714285715</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75F84CC-767F-3B47-855B-7F7B46159EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BEAEA9-B1A1-2645-8B2B-BD37B3D4C424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="10280" yWindow="1380" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6618,6 +6618,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>14</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>9.7142857142857135</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -6665,8 +6672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11378,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12261,6 +12268,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -12308,8 +12322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17008,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17891,6 +17905,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>12</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -17938,8 +17959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22242,7 +22263,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D441" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D442" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23521,6 +23542,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>18</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>19.428571428571427</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BEAEA9-B1A1-2645-8B2B-BD37B3D4C424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F68976-502D-7343-91BF-D72AB8AEA38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="1380" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3200" yWindow="1000" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+    <sheetView topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="C442" sqref="C442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6630,6 +6630,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>4</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -6673,7 +6680,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11385,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12280,6 +12287,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -12322,8 +12336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17022,7 +17036,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17917,6 +17931,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>19</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>20.285714285714285</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -17959,8 +17980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22263,7 +22284,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D442" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D443" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23554,6 +23575,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>15</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>18.714285714285715</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F68976-502D-7343-91BF-D72AB8AEA38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDFBF2E-2F1A-6A44-9D58-55915A069480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1000" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="880" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="C442" sqref="C442"/>
+      <selection activeCell="C456" sqref="C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6642,6 +6642,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>8</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>9.7142857142857135</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -6680,7 +6687,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11392,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12299,6 +12306,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -12337,7 +12351,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17036,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17943,6 +17957,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>14</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -17981,7 +18002,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22284,7 +22305,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D443" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D444" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23587,6 +23608,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>12</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>17.571428571428573</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDFBF2E-2F1A-6A44-9D58-55915A069480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC50040C-9463-7E4F-ABC2-70F21E1014BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="880" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="880" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="C456" sqref="C456"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6654,6 +6654,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>10</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>8.7142857142857135</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -6687,7 +6694,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11399,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12318,6 +12325,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -12350,8 +12364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+    <sheetView topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17050,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17969,6 +17983,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>18</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>16.857142857142858</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -18001,8 +18022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22305,7 +22326,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D444" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D445" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23620,6 +23641,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>12</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>16.428571428571427</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC50040C-9463-7E4F-ABC2-70F21E1014BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30951EAA-EB5B-9145-8155-0155D49433EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="880" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6666,6 +6666,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5714285714285712</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -6693,8 +6700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11406,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12337,6 +12344,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -12365,7 +12379,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17064,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -17995,6 +18009,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>19</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -18023,7 +18044,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22326,7 +22347,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D445" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D446" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23653,6 +23674,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>11</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>15.142857142857142</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30951EAA-EB5B-9145-8155-0155D49433EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114752B7-BAE6-6748-B591-0349A0BA2C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="880" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="880" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6679,10 +6679,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>31</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>9.7142857142857135</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>18</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>12.142857142857142</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -6701,7 +6715,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11413,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12357,10 +12371,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -12378,8 +12406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17078,7 +17106,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18022,10 +18050,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>18</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>16</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>16.571428571428573</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -18043,8 +18085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22347,7 +22389,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D446" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D448" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23687,10 +23729,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>9</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>13.571428571428571</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>9</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>12.285714285714286</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114752B7-BAE6-6748-B591-0349A0BA2C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A901242-CEAD-4040-9F14-D606ECDAC483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="880" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6699,9 +6699,16 @@
         <v>12.142857142857142</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>10.142857142857142</v>
       </c>
     </row>
   </sheetData>
@@ -6715,7 +6722,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11427,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12391,9 +12398,16 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -12407,7 +12421,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17106,7 +17120,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18070,9 +18084,16 @@
         <v>16.571428571428573</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>13</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>16.714285714285715</v>
       </c>
     </row>
   </sheetData>
@@ -18086,7 +18107,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22389,7 +22410,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D448" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D449" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23749,9 +23770,16 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>8</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>10.857142857142858</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A901242-CEAD-4040-9F14-D606ECDAC483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D2E90D-5119-4145-A64A-E5BF29756032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="880" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8260" yWindow="860" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J449"/>
+  <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:A479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6709,6 +6709,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>10.142857142857142</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>9.7142857142857135</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -6719,10 +6876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G449"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11434,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12408,6 +12565,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -12418,10 +12732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17120,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18094,6 +18408,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>16.714285714285715</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>8</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -18104,10 +18575,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22410,7 +22881,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D449" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D450" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -23780,6 +24251,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>10.857142857142858</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>7</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>9.7142857142857135</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D2E90D-5119-4145-A64A-E5BF29756032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A8A82-B4DD-1F4E-A984-B2B756507FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="860" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:A479"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6726,6 +6726,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>31</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -6879,7 +6886,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11591,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12582,6 +12589,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -12734,8 +12748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17434,7 +17448,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18425,6 +18439,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>16</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>15.428571428571429</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -18577,8 +18598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22881,7 +22902,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D450" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D451" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -24268,6 +24289,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>4</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A8A82-B4DD-1F4E-A984-B2B756507FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47DA74-A098-E14B-8A3F-4C9982C93533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6738,6 +6738,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>4</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>12.142857142857142</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -6885,8 +6892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+    <sheetView topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11598,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12601,6 +12608,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -12749,7 +12763,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17448,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18451,6 +18465,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>17</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>15.285714285714286</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -18599,7 +18620,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22902,7 +22923,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D451" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D452" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -24301,6 +24322,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>5</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>7.5714285714285712</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47DA74-A098-E14B-8A3F-4C9982C93533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF6C021-2195-E044-ACB8-210DDBDAE1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6560" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+      <selection activeCell="C460" sqref="C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6750,6 +6750,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>16</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>14.428571428571429</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -6892,8 +6899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11605,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12620,6 +12627,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -12763,7 +12777,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17462,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18477,6 +18491,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>9</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>13.857142857142858</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -18619,8 +18640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22923,7 +22944,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D452" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D453" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -24334,6 +24355,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>6</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>6.8571428571428568</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF6C021-2195-E044-ACB8-210DDBDAE1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB58B4E-A243-6B49-A4A0-815236076FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="C460" sqref="C460"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6762,6 +6762,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>13</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>11.857142857142858</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -6899,8 +6906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+    <sheetView topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11612,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12639,6 +12646,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -12777,7 +12791,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17476,7 +17490,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18503,6 +18517,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>20</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>14.142857142857142</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -18640,8 +18661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22944,7 +22965,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D453" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D454" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -24367,6 +24388,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>6</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>6.4285714285714288</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB58B4E-A243-6B49-A4A0-815236076FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896DB846-2B02-0845-94BC-2332EC081A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="D456" sqref="D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6775,10 +6775,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>8</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>10.428571428571429</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>10.428571428571429</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -6907,7 +6921,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="D456" sqref="D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11619,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12659,10 +12673,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -12790,8 +12818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+    <sheetView topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="D456" sqref="D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17490,7 +17518,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18530,10 +18558,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>10</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>13.285714285714286</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>11.571428571428571</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -18662,7 +18704,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="D456" sqref="D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22965,7 +23007,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D454" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D456" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -24401,10 +24443,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>6</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>6</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896DB846-2B02-0845-94BC-2332EC081A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03912A1C-F4F0-B441-A9A1-704076679398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="D456" sqref="D456"/>
+      <selection activeCell="A457" sqref="A457:E457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6798,6 +6798,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>13</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>12.142857142857142</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -6921,7 +6928,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="D456" sqref="D456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11633,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12696,6 +12703,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -12819,7 +12833,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="D456" sqref="D456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17518,7 +17532,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18581,6 +18595,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>4</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -18704,7 +18725,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="D456" sqref="D456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23007,7 +23028,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D456" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D457" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -24466,6 +24487,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>8</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8571428571428568</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03912A1C-F4F0-B441-A9A1-704076679398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983FE03E-2972-754B-81A9-0416A8F273E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:E457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6810,6 +6810,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>7.8571428571428568</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -6928,7 +6935,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11640,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12715,6 +12722,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -12832,8 +12846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17532,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18607,6 +18621,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>9</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -18724,8 +18745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+    <sheetView topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23028,7 +23049,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D457" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D458" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -24499,6 +24520,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>8</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>6.4285714285714288</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983FE03E-2972-754B-81A9-0416A8F273E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200D5E5-D53E-4148-87CE-9815A9C8A53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6822,6 +6822,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>8</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>8.4285714285714288</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -6934,8 +6941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11647,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12734,6 +12741,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -12846,8 +12860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17546,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18633,6 +18647,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>13</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>9.4285714285714288</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -18745,8 +18766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23049,7 +23070,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D458" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D459" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -24532,6 +24553,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>7</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>6.7142857142857144</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200D5E5-D53E-4148-87CE-9815A9C8A53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE2D137-74F9-4849-9BA0-468F3D0E72A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6834,6 +6834,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>5</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>6.8571428571428568</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -6941,8 +6948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+    <sheetView topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11654,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12753,6 +12760,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -12860,8 +12874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17560,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18659,6 +18673,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>13</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -18766,8 +18787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23070,7 +23091,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D459" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D460" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -24565,6 +24586,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>7</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>6.8571428571428568</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE2D137-74F9-4849-9BA0-468F3D0E72A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E34913-F459-8A48-991F-1B7712849B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6847,93 +6847,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>13</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>6.8571428571428568</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>6</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5714285714285712</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5714285714285712</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>9</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8571428571428568</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>4</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>5.2857142857142856</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -6948,8 +6990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11661,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D463" si="5">AVERAGE(C362:C368)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -12773,93 +12815,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" ref="D464:D466" si="6">AVERAGE(C458:C464)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -12874,8 +12958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17574,7 +17658,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18686,93 +18770,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>7</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>15</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>8.8571428571428577</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>3</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>9.1428571428571423</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>6</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>9.4285714285714288</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>13</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>25</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>11.714285714285714</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -18787,8 +18913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23091,7 +23217,7 @@
         <v>17</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D460" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D463" si="5">AVERAGE(C329:C335)</f>
         <v>15.857142857142858</v>
       </c>
     </row>
@@ -24599,93 +24725,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>7</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>7</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571432</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>7</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2857142857142856</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>7</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" ref="D464:D466" si="6">AVERAGE(C458:C464)</f>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>7</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>4</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="6"/>
+        <v>6.5714285714285712</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E34913-F459-8A48-991F-1B7712849B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243856BC-E00B-4247-811E-3E003601B7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3400" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="C467" sqref="C467:C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>133</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D467" si="5">AVERAGE(C362:C368)</f>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -6919,10 +6919,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>15</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>6.7142857142857144</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>6</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -6991,7 +7005,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12855,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D466" si="6">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D468" si="6">AVERAGE(C458:C464)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -12887,10 +12901,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -12958,8 +12986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="C467" sqref="C467:C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17658,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D467" si="5">AVERAGE(C362:C368)</f>
         <v>13.142857142857142</v>
       </c>
     </row>
@@ -18842,10 +18870,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>8</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>28</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -18914,7 +18956,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24765,7 +24807,7 @@
         <v>7</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D466" si="6">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D468" si="6">AVERAGE(C458:C464)</f>
         <v>7.1428571428571432</v>
       </c>
     </row>
@@ -24797,10 +24839,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>4</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="6"/>
+        <v>6.1428571428571432</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>4</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="6"/>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243856BC-E00B-4247-811E-3E003601B7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E135143F-0BAF-6C44-95C0-6719170A4D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="C467" sqref="C467:C468"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -6943,15 +6943,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>8</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>3</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="6"/>
+        <v>6.4285714285714288</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -7005,7 +7026,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+      <selection activeCell="C471" sqref="C471:D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12869,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D468" si="6">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D469" si="6">AVERAGE(C458:C464)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -12925,15 +12946,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" ref="D470:D471" si="7">AVERAGE(C464:C470)</f>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -12984,10 +13026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="C467" sqref="C467:C468"/>
+    <sheetView topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18842,7 +18884,7 @@
         <v>9.4285714285714288</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
@@ -18854,7 +18896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
@@ -18866,7 +18908,7 @@
         <v>11.714285714285714</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
@@ -18878,7 +18920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
@@ -18886,61 +18928,83 @@
         <v>28</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C469">
+        <v>8</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C470">
+        <v>14</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="6"/>
+        <v>14.571428571428571</v>
+      </c>
+      <c r="E470" s="3"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="6"/>
+        <v>13.714285714285714</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -18956,7 +19020,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24807,7 +24871,7 @@
         <v>7</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D468" si="6">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D471" si="6">AVERAGE(C458:C464)</f>
         <v>7.1428571428571432</v>
       </c>
     </row>
@@ -24863,15 +24927,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>4</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="6"/>
+        <v>5.2857142857142856</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="6"/>
+        <v>4.5714285714285712</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="6"/>
+        <v>3.8571428571428572</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E135143F-0BAF-6C44-95C0-6719170A4D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AA2509-0190-644F-B216-F6E3A7A502CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -6978,6 +6978,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="6"/>
+        <v>5.4285714285714288</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -7026,7 +7033,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="C471" sqref="C471:D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12962,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="D470" s="3">
-        <f t="shared" ref="D470:D471" si="7">AVERAGE(C464:C470)</f>
+        <f t="shared" ref="D470:D472" si="7">AVERAGE(C464:C470)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -12981,6 +12988,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -13028,8 +13042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18928,7 +18942,7 @@
         <v>28</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
         <v>14</v>
       </c>
     </row>
@@ -18972,6 +18986,13 @@
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>16</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="6"/>
+        <v>14.142857142857142</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
@@ -19019,8 +19040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24871,7 +24892,7 @@
         <v>7</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D471" si="6">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D472" si="6">AVERAGE(C458:C464)</f>
         <v>7.1428571428571432</v>
       </c>
     </row>
@@ -24962,6 +24983,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AA2509-0190-644F-B216-F6E3A7A502CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A54F6E-3B25-7F49-95A5-FB90B129553B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3600" yWindow="820" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -6991,15 +6991,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>4</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="6"/>
+        <v>3.4285714285714284</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -7032,8 +7053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12969,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="D470" s="3">
-        <f t="shared" ref="D470:D472" si="7">AVERAGE(C464:C470)</f>
+        <f t="shared" ref="D470:D475" si="7">AVERAGE(C464:C470)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -13001,15 +13022,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -13042,8 +13084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView topLeftCell="A453" workbookViewId="0">
+      <selection activeCell="U467" sqref="U467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18942,7 +18984,7 @@
         <v>28</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
         <v>14</v>
       </c>
     </row>
@@ -18999,15 +19041,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>10</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>10</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="6"/>
+        <v>12.285714285714286</v>
+      </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>5</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -19041,7 +19104,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24892,7 +24955,7 @@
         <v>7</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D472" si="6">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D475" si="6">AVERAGE(C458:C464)</f>
         <v>7.1428571428571432</v>
       </c>
     </row>
@@ -24996,15 +25059,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>3</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>3</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428572</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>3</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A54F6E-3B25-7F49-95A5-FB90B129553B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD5D5D8-825F-FF4D-9802-86C798301B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="820" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J479"/>
+  <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7027,20 +7027,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>4</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -7051,10 +7269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12990,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="D470" s="3">
-        <f t="shared" ref="D470:D475" si="7">AVERAGE(C464:C470)</f>
+        <f t="shared" ref="D470:D484" si="7">AVERAGE(C464:C470)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -13058,20 +13276,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -13082,10 +13518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E510"/>
   <sheetViews>
-    <sheetView topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="U467" sqref="U467"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18984,7 +19420,7 @@
         <v>28</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
         <v>14</v>
       </c>
     </row>
@@ -19077,20 +19513,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>5</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>8.5714285714285712</v>
+      </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>4</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>7.1428571428571432</v>
+      </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>13</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>3</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>3</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>6.1428571428571432</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>5</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>5.4285714285714288</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>8</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>5</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>5.2857142857142856</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -19101,10 +19755,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24955,7 +25609,7 @@
         <v>7</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D475" si="6">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D484" si="6">AVERAGE(C458:C464)</f>
         <v>7.1428571428571432</v>
       </c>
     </row>
@@ -25095,20 +25749,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>3</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>3</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>3</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>4</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>4</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>4</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD5D5D8-825F-FF4D-9802-86C798301B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C26076-76C4-9B4D-A53A-0381B9321C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7134,6 +7134,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -7272,7 +7279,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13208,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="D470" s="3">
-        <f t="shared" ref="D470:D484" si="7">AVERAGE(C464:C470)</f>
+        <f t="shared" ref="D470:D485" si="7">AVERAGE(C464:C470)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -13383,6 +13390,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -13520,8 +13534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19420,7 +19434,7 @@
         <v>28</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
         <v>14</v>
       </c>
     </row>
@@ -19620,6 +19634,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5714285714285716</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -19758,7 +19779,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25609,7 +25630,7 @@
         <v>7</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D484" si="6">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D485" si="6">AVERAGE(C458:C464)</f>
         <v>7.1428571428571432</v>
       </c>
     </row>
@@ -25856,6 +25877,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>4</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5714285714285716</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Vibo Valentia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C26076-76C4-9B4D-A53A-0381B9321C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81417BC0-DB28-1945-9194-98D0F7438D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D493" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7147,40 +7147,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>3</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>3</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1428571428571428</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>3</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -7279,7 +7335,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+      <selection activeCell="C493" sqref="C493:D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13403,40 +13459,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" ref="D486" si="8">AVERAGE(C480:C486)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" ref="D487" si="9">AVERAGE(C481:C487)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" ref="D488" si="10">AVERAGE(C482:C488)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" ref="D489" si="11">AVERAGE(C483:C489)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" ref="D490" si="12">AVERAGE(C484:C490)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" ref="D491" si="13">AVERAGE(C485:C491)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" ref="D492:D493" si="14">AVERAGE(C486:C492)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -13534,8 +13646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19434,7 +19546,7 @@
         <v>28</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D486" si="6">AVERAGE(C462:C468)</f>
         <v>14</v>
       </c>
     </row>
@@ -19647,40 +19759,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>11</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>4.7142857142857144</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>11</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" ref="D487:D490" si="7">AVERAGE(C481:C487)</f>
+        <v>5.8571428571428568</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>4</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="7"/>
+        <v>5.7142857142857144</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>5</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="7"/>
+        <v>6.4285714285714288</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2857142857142856</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" ref="D491:D493" si="8">AVERAGE(C485:C491)</f>
+        <v>4.5714285714285712</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5714285714285712</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="8"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -19779,7 +19947,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25630,7 +25798,7 @@
         <v>7</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D485" si="6">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D486" si="6">AVERAGE(C458:C464)</f>
         <v>7.1428571428571432</v>
       </c>
     </row>
@@ -25890,40 +26058,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>5</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>5</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" ref="D487:D490" si="7">AVERAGE(C481:C487)</f>
+        <v>4.1428571428571432</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>3</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1428571428571432</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="7"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>2</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="7"/>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" ref="D491" si="8">AVERAGE(C485:C491)</f>
+        <v>3.2857142857142856</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>2</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" ref="D492:D493" si="9">AVERAGE(C486:C492)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>4</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="9"/>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81417BC0-DB28-1945-9194-98D0F7438D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78EB6CC-ED6B-034C-B7DF-9854F014CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+    <sheetView topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D493" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D496" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7243,15 +7243,36 @@
       <c r="A494" s="5">
         <v>44392</v>
       </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>3</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -7334,8 +7355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="C493" sqref="C493:D493"/>
+    <sheetView topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13555,15 +13576,36 @@
       <c r="A494" s="5">
         <v>44392</v>
       </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" ref="D494" si="15">AVERAGE(C488:C494)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" ref="D495:D496" si="16">AVERAGE(C489:C495)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -13646,8 +13688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E510"/>
   <sheetViews>
-    <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19823,7 +19865,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D493" si="8">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D496" si="8">AVERAGE(C485:C491)</f>
         <v>4.5714285714285712</v>
       </c>
     </row>
@@ -19855,15 +19897,36 @@
       <c r="A494" s="5">
         <v>44392</v>
       </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5714285714285714</v>
+      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>2</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2857142857142858</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -19946,8 +20009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+    <sheetView topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26134,7 +26197,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="3">
-        <f t="shared" ref="D492:D493" si="9">AVERAGE(C486:C492)</f>
+        <f t="shared" ref="D492:D496" si="9">AVERAGE(C486:C492)</f>
         <v>3</v>
       </c>
     </row>
@@ -26154,15 +26217,36 @@
       <c r="A494" s="5">
         <v>44392</v>
       </c>
+      <c r="C494">
+        <v>4</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="9"/>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>3</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="9"/>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>3</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="9"/>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Vibo Valentia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78EB6CC-ED6B-034C-B7DF-9854F014CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3271B5-136B-6D46-9CE0-FB0A1ED242BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9380" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="C497" sqref="C497:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D496" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D499" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7275,72 +7275,93 @@
         <v>1.2857142857142858</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>2</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -7356,7 +7377,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13608,72 +13629,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" ref="D497:D499" si="17">AVERAGE(C491:C497)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -13689,7 +13731,7 @@
   <dimension ref="A1:E510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="C497" sqref="C497:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19865,7 +19907,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D496" si="8">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D499" si="8">AVERAGE(C485:C491)</f>
         <v>4.5714285714285712</v>
       </c>
     </row>
@@ -19929,72 +19971,93 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>3</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="8"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -20010,7 +20073,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26197,7 +26260,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="3">
-        <f t="shared" ref="D492:D496" si="9">AVERAGE(C486:C492)</f>
+        <f t="shared" ref="D492:D499" si="9">AVERAGE(C486:C492)</f>
         <v>3</v>
       </c>
     </row>
@@ -26249,72 +26312,93 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>3</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>3</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>3</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="9"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3271B5-136B-6D46-9CE0-FB0A1ED242BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB14E66-65F0-9C40-949A-0624BDDD197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:C499"/>
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D499" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D500" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7314,6 +7314,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>7</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -7377,7 +7384,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13637,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="D497" s="3">
-        <f t="shared" ref="D497:D499" si="17">AVERAGE(C491:C497)</f>
+        <f t="shared" ref="D497:D500" si="17">AVERAGE(C491:C497)</f>
         <v>0</v>
       </c>
     </row>
@@ -13668,6 +13675,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -13731,7 +13745,7 @@
   <dimension ref="A1:E510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:C499"/>
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19907,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D499" si="8">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D500" si="8">AVERAGE(C485:C491)</f>
         <v>4.5714285714285712</v>
       </c>
     </row>
@@ -20010,6 +20024,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>5</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -20072,8 +20093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+    <sheetView topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26260,7 +26281,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="3">
-        <f t="shared" ref="D492:D499" si="9">AVERAGE(C486:C492)</f>
+        <f t="shared" ref="D492:D500" si="9">AVERAGE(C486:C492)</f>
         <v>3</v>
       </c>
     </row>
@@ -26351,6 +26372,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>3</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB14E66-65F0-9C40-949A-0624BDDD197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD969D8-DC6F-4C4C-ABE4-6BFBD8D39A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="4000" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D500" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D504" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7327,20 +7327,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>3</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -7383,8 +7411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13644,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="D497" s="3">
-        <f t="shared" ref="D497:D500" si="17">AVERAGE(C491:C497)</f>
+        <f t="shared" ref="D497:D504" si="17">AVERAGE(C491:C497)</f>
         <v>0</v>
       </c>
     </row>
@@ -13688,20 +13716,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -13744,8 +13800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19921,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D500" si="8">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D504" si="8">AVERAGE(C485:C491)</f>
         <v>4.5714285714285712</v>
       </c>
     </row>
@@ -20037,20 +20093,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4285714285714286</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1428571428571428</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1428571428571428</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -20093,8 +20177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26281,7 +26365,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="3">
-        <f t="shared" ref="D492:D500" si="9">AVERAGE(C486:C492)</f>
+        <f t="shared" ref="D492:D504" si="9">AVERAGE(C486:C492)</f>
         <v>3</v>
       </c>
     </row>
@@ -26385,20 +26469,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>3</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>3</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>3</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>3</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD969D8-DC6F-4C4C-ABE4-6BFBD8D39A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8EBCEA-6D99-1945-9D47-25784BD6E6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+      <selection activeCell="C505" sqref="C505:C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D504" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D506" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7375,10 +7375,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>7</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -7412,7 +7426,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13672,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="D497" s="3">
-        <f t="shared" ref="D497:D504" si="17">AVERAGE(C491:C497)</f>
+        <f t="shared" ref="D497:D506" si="17">AVERAGE(C491:C497)</f>
         <v>0</v>
       </c>
     </row>
@@ -13764,10 +13778,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -13801,7 +13829,7 @@
   <dimension ref="A1:E510"/>
   <sheetViews>
     <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+      <selection activeCell="C505" sqref="C505:C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19977,7 +20005,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D504" si="8">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D506" si="8">AVERAGE(C485:C491)</f>
         <v>4.5714285714285712</v>
       </c>
     </row>
@@ -20141,10 +20169,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1428571428571428</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -20177,8 +20219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="C505" sqref="C505:C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26517,10 +26559,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>3</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" ref="D505:D506" si="10">AVERAGE(C499:C505)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>3</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8EBCEA-6D99-1945-9D47-25784BD6E6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B2C692-13A3-994B-AA13-ECE1FD7A4028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="C505" sqref="C505:C506"/>
+    <sheetView topLeftCell="A506" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D506" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D507" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7398,6 +7398,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>11</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="6"/>
+        <v>3.4285714285714284</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -7425,8 +7432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13801,6 +13808,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" ref="D507" si="18">AVERAGE(C501:C507)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -13828,8 +13842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E510"/>
   <sheetViews>
-    <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="C505" sqref="C505:C506"/>
+    <sheetView topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20005,7 +20019,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D506" si="8">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D507" si="8">AVERAGE(C485:C491)</f>
         <v>4.5714285714285712</v>
       </c>
     </row>
@@ -20192,6 +20206,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>11</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="8"/>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -20219,8 +20240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="C505" sqref="C505:C506"/>
+    <sheetView topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26583,6 +26604,13 @@
       <c r="A507" s="5">
         <v>44405</v>
       </c>
+      <c r="C507">
+        <v>3</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" ref="D507" si="11">AVERAGE(C501:C507)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B2C692-13A3-994B-AA13-ECE1FD7A4028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC2B0EA-6042-8F47-91BF-DF87F3D76913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="780" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9980" yWindow="900" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+      <selection activeCell="D523" sqref="D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D507" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D508" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7410,6 +7410,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>11</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -7432,8 +7439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+    <sheetView topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13820,6 +13827,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" ref="D508" si="19">AVERAGE(C502:C508)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -13842,8 +13856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E510"/>
   <sheetViews>
-    <sheetView topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20019,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D507" si="8">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D508" si="8">AVERAGE(C485:C491)</f>
         <v>4.5714285714285712</v>
       </c>
     </row>
@@ -20218,6 +20232,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="8"/>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -20240,8 +20261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+    <sheetView topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26608,13 +26629,20 @@
         <v>3</v>
       </c>
       <c r="D507" s="3">
-        <f t="shared" ref="D507" si="11">AVERAGE(C501:C507)</f>
+        <f t="shared" ref="D507:D508" si="11">AVERAGE(C501:C507)</f>
         <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>3</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC2B0EA-6042-8F47-91BF-DF87F3D76913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E8246-6591-FC40-AEBE-79965F926007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="900" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J510"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="D523" sqref="D523"/>
+    <sheetView topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="A521" sqref="A521:D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6428,11 +6428,11 @@
         <v>44324</v>
       </c>
       <c r="C426">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D426" s="3">
         <f t="shared" si="5"/>
-        <v>14.428571428571429</v>
+        <v>13.714285714285714</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="D427" s="3">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>17.285714285714285</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="D428" s="3">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>17.285714285714285</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="D429" s="3">
         <f t="shared" si="5"/>
-        <v>18.428571428571427</v>
+        <v>17.714285714285715</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="D430" s="3">
         <f t="shared" si="5"/>
-        <v>17.571428571428573</v>
+        <v>16.857142857142858</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="D431" s="3">
         <f t="shared" si="5"/>
-        <v>16.285714285714285</v>
+        <v>15.571428571428571</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="D432" s="3">
         <f t="shared" si="5"/>
-        <v>14.571428571428571</v>
+        <v>13.857142857142858</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D508" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D521" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7244,11 +7244,11 @@
         <v>44392</v>
       </c>
       <c r="C494">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D494" s="3">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="D495" s="3">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="D496" s="3">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="D497" s="3">
         <f t="shared" si="6"/>
-        <v>1.4285714285714286</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="D498" s="3">
         <f t="shared" si="6"/>
-        <v>1.4285714285714286</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="D499" s="3">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="D500" s="3">
         <f t="shared" si="6"/>
-        <v>1.8571428571428572</v>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -7423,10 +7423,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="6"/>
+        <v>4.7142857142857144</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>8</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="6"/>
+        <v>5.4285714285714288</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>8</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="6"/>
+        <v>6.4285714285714288</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="6"/>
+        <v>6.4285714285714288</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>8</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="6"/>
+        <v>6.5714285714285712</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>3</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="6"/>
+        <v>5.4285714285714288</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>9</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="6"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>11</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="6"/>
+        <v>6.7142857142857144</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>23</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="6"/>
+        <v>8.8571428571428577</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>24</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="6"/>
+        <v>11.142857142857142</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="6"/>
+        <v>11.142857142857142</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>18</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="6"/>
+        <v>12.571428571428571</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>15</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="6"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -7437,10 +7683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G510"/>
+  <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="A509" sqref="A509:D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13840,10 +14086,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" ref="D509" si="20">AVERAGE(C503:C509)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" ref="D510" si="21">AVERAGE(C504:C510)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" ref="D511" si="22">AVERAGE(C505:C511)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" ref="D512" si="23">AVERAGE(C506:C512)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" ref="D513" si="24">AVERAGE(C507:C513)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" ref="D514" si="25">AVERAGE(C508:C514)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" ref="D515" si="26">AVERAGE(C509:C515)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" ref="D516" si="27">AVERAGE(C510:C516)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" ref="D517" si="28">AVERAGE(C511:C517)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" ref="D518" si="29">AVERAGE(C512:C518)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" ref="D519" si="30">AVERAGE(C513:C519)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" ref="D520" si="31">AVERAGE(C514:C520)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" ref="D521" si="32">AVERAGE(C515:C521)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -13854,10 +14346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:E510"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="A509" sqref="A509:D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20033,7 +20525,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D508" si="8">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D509" si="8">AVERAGE(C485:C491)</f>
         <v>4.5714285714285712</v>
       </c>
     </row>
@@ -20245,10 +20737,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="8"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" ref="D510:D521" si="9">AVERAGE(C504:C510)</f>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="9"/>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="9"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>3</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="9"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>4</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>3</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="9"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>3</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="9"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>2</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="9"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>6</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="9"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>3</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="9"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -20259,10 +20997,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="A509" sqref="A509:D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26649,10 +27387,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>3</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" ref="D509" si="12">AVERAGE(C503:C509)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>3</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" ref="D510" si="13">AVERAGE(C504:C510)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>3</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" ref="D511:D512" si="14">AVERAGE(C505:C511)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>2</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="14"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>2</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" ref="D513:D516" si="15">AVERAGE(C507:C513)</f>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="15"/>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="15"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>2</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>2</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" ref="D517:D518" si="16">AVERAGE(C511:C517)</f>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>4</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>4</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" ref="D519" si="17">AVERAGE(C513:C519)</f>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>4</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" ref="D520" si="18">AVERAGE(C514:C520)</f>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>4</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" ref="D521" si="19">AVERAGE(C515:C521)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E8246-6591-FC40-AEBE-79965F926007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7CDB2E-AB60-E148-9940-F49B8E3EEEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="A521" sqref="A521:D521"/>
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D521" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D522" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7578,6 +7578,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>24</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="6"/>
+        <v>16.428571428571427</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -7686,7 +7693,7 @@
   <dimension ref="A1:G541"/>
   <sheetViews>
     <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A509" sqref="A509:D521"/>
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14241,6 +14248,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" ref="D522" si="33">AVERAGE(C516:C522)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -14349,7 +14363,7 @@
   <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="A509" sqref="A509:D521"/>
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20753,7 +20767,7 @@
         <v>2</v>
       </c>
       <c r="D510" s="3">
-        <f t="shared" ref="D510:D521" si="9">AVERAGE(C504:C510)</f>
+        <f t="shared" ref="D510:D522" si="9">AVERAGE(C504:C510)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -20892,6 +20906,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>2</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="9"/>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -21000,7 +21021,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="A509" sqref="A509:D521"/>
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27535,13 +27556,20 @@
         <v>4</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521" si="19">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D522" si="19">AVERAGE(C515:C521)</f>
         <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>2</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="19"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7CDB2E-AB60-E148-9940-F49B8E3EEEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDBF73D-2844-3C43-A48B-7B436D0463DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D522" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D523" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7590,6 +7590,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>17</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="6"/>
+        <v>17.285714285714285</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -7692,8 +7699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+    <sheetView topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14260,6 +14267,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" ref="D523" si="34">AVERAGE(C517:C523)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -14362,8 +14376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+    <sheetView topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20767,7 +20781,7 @@
         <v>2</v>
       </c>
       <c r="D510" s="3">
-        <f t="shared" ref="D510:D522" si="9">AVERAGE(C504:C510)</f>
+        <f t="shared" ref="D510:D523" si="9">AVERAGE(C504:C510)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -20918,6 +20932,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -21021,7 +21042,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27556,7 +27577,7 @@
         <v>4</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521:D522" si="19">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D523" si="19">AVERAGE(C515:C521)</f>
         <v>3</v>
       </c>
     </row>
@@ -27575,6 +27596,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>3</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="19"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDBF73D-2844-3C43-A48B-7B436D0463DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F675BDD5-08A2-064F-94F0-B81D430B1741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5680" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="C513" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D523" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D540" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7603,88 +7603,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="6"/>
+        <v>14.142857142857142</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>32</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="6"/>
+        <v>15.285714285714286</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="6"/>
+        <v>15.285714285714286</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="6"/>
+        <v>12.857142857142858</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>40</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="6"/>
+        <v>16.428571428571427</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>18</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="6"/>
+        <v>15.571428571428571</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>37</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="6"/>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>18</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="6"/>
+        <v>20.857142857142858</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>18</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="6"/>
+        <v>18.857142857142858</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>34</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="6"/>
+        <v>23.714285714285715</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>8</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="6"/>
+        <v>24.714285714285715</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>24</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="6"/>
+        <v>22.428571428571427</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>14</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="6"/>
+        <v>21.857142857142858</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>21</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="6"/>
+        <v>19.571428571428573</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>18</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="6"/>
+        <v>19.571428571428573</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>20</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="6"/>
+        <v>19.857142857142858</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>24</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="6"/>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -7699,8 +7818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="C514" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14272,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="D523" s="3">
-        <f t="shared" ref="D523" si="34">AVERAGE(C517:C523)</f>
+        <f t="shared" ref="D523:D524" si="34">AVERAGE(C517:C523)</f>
         <v>0</v>
       </c>
     </row>
@@ -14280,88 +14399,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" ref="D525" si="35">AVERAGE(C519:C525)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" ref="D526" si="36">AVERAGE(C520:C526)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" ref="D527" si="37">AVERAGE(C521:C527)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" ref="D528" si="38">AVERAGE(C522:C528)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" ref="D529" si="39">AVERAGE(C523:C529)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" ref="D530" si="40">AVERAGE(C524:C530)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" ref="D531" si="41">AVERAGE(C525:C531)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" ref="D532" si="42">AVERAGE(C526:C532)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" ref="D533:D534" si="43">AVERAGE(C527:C533)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="43"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" ref="D535:D536" si="44">AVERAGE(C529:C535)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="44"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" ref="D537" si="45">AVERAGE(C531:C537)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>0</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" ref="D538" si="46">AVERAGE(C532:C538)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" ref="D539" si="47">AVERAGE(C533:C539)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" ref="D540" si="48">AVERAGE(C534:C540)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -14376,8 +14614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="C518" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20781,7 +21019,7 @@
         <v>2</v>
       </c>
       <c r="D510" s="3">
-        <f t="shared" ref="D510:D523" si="9">AVERAGE(C504:C510)</f>
+        <f t="shared" ref="D510:D540" si="9">AVERAGE(C504:C510)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -20945,88 +21183,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>4</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="9"/>
+        <v>2.2857142857142856</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>10</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="9"/>
+        <v>2.8571428571428572</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="9"/>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>11</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="9"/>
+        <v>4.2857142857142856</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>5</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="9"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>3</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="9"/>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>19</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="9"/>
+        <v>7.4285714285714288</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>2</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="9"/>
+        <v>5.8571428571428568</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>4</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="9"/>
+        <v>6.4285714285714288</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>11</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="9"/>
+        <v>6.4285714285714288</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>18</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="9"/>
+        <v>8.2857142857142865</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>8</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>24</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="9"/>
+        <v>9.7142857142857135</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>5</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="9"/>
+        <v>10.142857142857142</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>8</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="9"/>
+        <v>11.142857142857142</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>14</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="9"/>
+        <v>12.571428571428571</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -21041,8 +21398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="C513" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27577,7 +27934,7 @@
         <v>4</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521:D523" si="19">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D524" si="19">AVERAGE(C515:C521)</f>
         <v>3</v>
       </c>
     </row>
@@ -27609,88 +27966,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>4</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="19"/>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>4</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" ref="D525:D528" si="20">AVERAGE(C519:C525)</f>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>5</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="20"/>
+        <v>3.7142857142857144</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>4</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="20"/>
+        <v>3.7142857142857144</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>6</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>6</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" ref="D529" si="21">AVERAGE(C523:C529)</f>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>6</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" ref="D530:D531" si="22">AVERAGE(C524:C530)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>7</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="22"/>
+        <v>5.4285714285714288</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>7</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" ref="D532:D534" si="23">AVERAGE(C526:C532)</f>
+        <v>5.8571428571428568</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>9</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="23"/>
+        <v>6.4285714285714288</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>10</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="23"/>
+        <v>7.2857142857142856</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>10</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" ref="D535" si="24">AVERAGE(C529:C535)</f>
+        <v>7.8571428571428568</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>10</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" ref="D536" si="25">AVERAGE(C530:C536)</f>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>10</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" ref="D537" si="26">AVERAGE(C531:C537)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>10</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" ref="D538:D540" si="27">AVERAGE(C532:C538)</f>
+        <v>9.4285714285714288</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>9</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="27"/>
+        <v>9.7142857142857135</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>10</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="27"/>
+        <v>9.8571428571428577</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F675BDD5-08A2-064F-94F0-B81D430B1741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DC90E-4A3B-DB4F-AF8A-714409D1B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="2020" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="C513" sqref="C1:C1048576"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D540" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D541" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7806,6 +7806,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>16</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="6"/>
+        <v>19.571428571428573</v>
       </c>
     </row>
   </sheetData>
@@ -7819,7 +7826,7 @@
   <dimension ref="A1:G541"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="C514" sqref="C1:C1048576"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14602,6 +14609,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" ref="D541" si="49">AVERAGE(C535:C541)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -14615,7 +14629,7 @@
   <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="C518" sqref="C1:C1048576"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21019,7 +21033,7 @@
         <v>2</v>
       </c>
       <c r="D510" s="3">
-        <f t="shared" ref="D510:D540" si="9">AVERAGE(C504:C510)</f>
+        <f t="shared" ref="D510:D541" si="9">AVERAGE(C504:C510)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -21386,6 +21400,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>24</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="9"/>
+        <v>14.428571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -21399,7 +21420,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="C513" sqref="C1:C1048576"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28138,7 +28159,7 @@
         <v>10</v>
       </c>
       <c r="D538" s="3">
-        <f t="shared" ref="D538:D540" si="27">AVERAGE(C532:C538)</f>
+        <f t="shared" ref="D538:D541" si="27">AVERAGE(C532:C538)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -28169,6 +28190,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>9</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="27"/>
+        <v>9.7142857142857135</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DC90E-4A3B-DB4F-AF8A-714409D1B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0868F8B3-AA5E-2043-B06E-F53B156864B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J541"/>
+  <dimension ref="A1:J542"/>
   <sheetViews>
     <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D541" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D542" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7813,6 +7813,18 @@
       <c r="D541" s="3">
         <f t="shared" si="6"/>
         <v>19.571428571428573</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>9</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="6"/>
+        <v>17.428571428571427</v>
       </c>
     </row>
   </sheetData>
@@ -7823,10 +7835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G541"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14614,7 +14626,19 @@
         <v>0</v>
       </c>
       <c r="D541" s="3">
-        <f t="shared" ref="D541" si="49">AVERAGE(C535:C541)</f>
+        <f t="shared" ref="D541:D542" si="49">AVERAGE(C535:C541)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="49"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -14626,10 +14650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:E541"/>
+  <dimension ref="A1:E542"/>
   <sheetViews>
     <sheetView topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21033,7 +21057,7 @@
         <v>2</v>
       </c>
       <c r="D510" s="3">
-        <f t="shared" ref="D510:D541" si="9">AVERAGE(C504:C510)</f>
+        <f t="shared" ref="D510:D542" si="9">AVERAGE(C504:C510)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -21405,6 +21429,18 @@
         <v>24</v>
       </c>
       <c r="D541" s="3">
+        <f t="shared" si="9"/>
+        <v>14.428571428571429</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>18</v>
+      </c>
+      <c r="D542" s="3">
         <f t="shared" si="9"/>
         <v>14.428571428571429</v>
       </c>
@@ -21417,10 +21453,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28159,7 +28195,7 @@
         <v>10</v>
       </c>
       <c r="D538" s="3">
-        <f t="shared" ref="D538:D541" si="27">AVERAGE(C532:C538)</f>
+        <f t="shared" ref="D538:D542" si="27">AVERAGE(C532:C538)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -28197,6 +28233,18 @@
       <c r="D541" s="3">
         <f t="shared" si="27"/>
         <v>9.7142857142857135</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>7</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="27"/>
+        <v>9.2857142857142865</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0868F8B3-AA5E-2043-B06E-F53B156864B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98698B0B-65D5-3E43-B4D6-DE32020C6837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J542"/>
+  <dimension ref="A1:J571"/>
   <sheetViews>
-    <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView topLeftCell="A527" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D542" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D543" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7825,6 +7825,158 @@
       <c r="D542" s="3">
         <f t="shared" si="6"/>
         <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>11</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -7835,10 +7987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G571"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14626,7 +14778,7 @@
         <v>0</v>
       </c>
       <c r="D541" s="3">
-        <f t="shared" ref="D541:D542" si="49">AVERAGE(C535:C541)</f>
+        <f t="shared" ref="D541:D543" si="49">AVERAGE(C535:C541)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -14640,6 +14792,158 @@
       <c r="D542" s="3">
         <f t="shared" si="49"/>
         <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="49"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -14650,10 +14954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:E542"/>
+  <dimension ref="A1:E571"/>
   <sheetViews>
     <sheetView topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21057,7 +21361,7 @@
         <v>2</v>
       </c>
       <c r="D510" s="3">
-        <f t="shared" ref="D510:D542" si="9">AVERAGE(C504:C510)</f>
+        <f t="shared" ref="D510:D543" si="9">AVERAGE(C504:C510)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -21443,6 +21747,158 @@
       <c r="D542" s="3">
         <f t="shared" si="9"/>
         <v>14.428571428571429</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>9</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="9"/>
+        <v>14.571428571428571</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -21453,10 +21909,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28195,7 +28651,7 @@
         <v>10</v>
       </c>
       <c r="D538" s="3">
-        <f t="shared" ref="D538:D542" si="27">AVERAGE(C532:C538)</f>
+        <f t="shared" ref="D538:D543" si="27">AVERAGE(C532:C538)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -28245,6 +28701,158 @@
       <c r="D542" s="3">
         <f t="shared" si="27"/>
         <v>9.2857142857142865</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>7</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="27"/>
+        <v>8.8571428571428577</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
+++ b/dati/provincia/Vibo Valentia/Vibo Valentia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Vibo Valentia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98698B0B-65D5-3E43-B4D6-DE32020C6837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B8DD0D-BAC1-4848-A4DC-A1E30CC448E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J571"/>
   <sheetViews>
     <sheetView topLeftCell="A527" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D543" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D544" si="6">AVERAGE(C462:C468)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -7842,6 +7842,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>12</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="6"/>
+        <v>15.714285714285714</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -7990,7 +7997,7 @@
   <dimension ref="A1:G571"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14778,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="D541" s="3">
-        <f t="shared" ref="D541:D543" si="49">AVERAGE(C535:C541)</f>
+        <f t="shared" ref="D541:D544" si="49">AVERAGE(C535:C541)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -14809,6 +14816,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="49"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -14956,8 +14970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E571"/>
   <sheetViews>
-    <sheetView topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21361,7 +21375,7 @@
         <v>2</v>
       </c>
       <c r="D510" s="3">
-        <f t="shared" ref="D510:D543" si="9">AVERAGE(C504:C510)</f>
+        <f t="shared" ref="D510:D544" si="9">AVERAGE(C504:C510)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -21764,6 +21778,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>13</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -21911,8 +21932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+    <sheetView topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28651,7 +28672,7 @@
         <v>10</v>
       </c>
       <c r="D538" s="3">
-        <f t="shared" ref="D538:D543" si="27">AVERAGE(C532:C538)</f>
+        <f t="shared" ref="D538:D544" si="27">AVERAGE(C532:C538)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -28718,6 +28739,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>8</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="27"/>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
